--- a/Example/test1.xlsx
+++ b/Example/test1.xlsx
@@ -1,39 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\900_Code\610_Application\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23715" windowHeight="15780" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>Title1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Title2</t>
@@ -48,6 +38,96 @@
     <t>Title5</t>
   </si>
   <si>
+    <t>Sheet 3-1</t>
+  </si>
+  <si>
+    <t>Sheet 3-2</t>
+  </si>
+  <si>
+    <t>Sheet 3-3</t>
+  </si>
+  <si>
+    <t>Sheet 3-4</t>
+  </si>
+  <si>
+    <t>Sheet 3-5</t>
+  </si>
+  <si>
+    <t>Sheet 3-6</t>
+  </si>
+  <si>
+    <t>Sheet 3-7</t>
+  </si>
+  <si>
+    <t>Sheet 3-8</t>
+  </si>
+  <si>
+    <t>Sheet 3-9</t>
+  </si>
+  <si>
+    <t>Sheet 3-10</t>
+  </si>
+  <si>
+    <t>Sheet 3-11</t>
+  </si>
+  <si>
+    <t>Sheet 3-12</t>
+  </si>
+  <si>
+    <t>Sheet 3-13</t>
+  </si>
+  <si>
+    <t>Sheet 3-14</t>
+  </si>
+  <si>
+    <t>Sheet 3-15</t>
+  </si>
+  <si>
+    <t>Sheet 3-16</t>
+  </si>
+  <si>
+    <t>Sheet 3-17</t>
+  </si>
+  <si>
+    <t>Sheet 3-18</t>
+  </si>
+  <si>
+    <t>Sheet 3-19</t>
+  </si>
+  <si>
+    <t>Sheet 3-20</t>
+  </si>
+  <si>
+    <t>Sheet 3-21</t>
+  </si>
+  <si>
+    <t>Sheet 3-22</t>
+  </si>
+  <si>
+    <t>Sheet 3-23</t>
+  </si>
+  <si>
+    <t>Sheet 3-24</t>
+  </si>
+  <si>
+    <t>Sheet 3-25</t>
+  </si>
+  <si>
+    <t>Sheet 3-26</t>
+  </si>
+  <si>
+    <t>Sheet 3-27</t>
+  </si>
+  <si>
+    <t>Sheet 3-28</t>
+  </si>
+  <si>
+    <t>Sheet 3-29</t>
+  </si>
+  <si>
+    <t>Sheet 3-30</t>
+  </si>
+  <si>
     <t>Sheet 2-1</t>
   </si>
   <si>
@@ -138,96 +218,6 @@
     <t>Sheet 2-30</t>
   </si>
   <si>
-    <t>Sheet 3-1</t>
-  </si>
-  <si>
-    <t>Sheet 3-2</t>
-  </si>
-  <si>
-    <t>Sheet 3-3</t>
-  </si>
-  <si>
-    <t>Sheet 3-4</t>
-  </si>
-  <si>
-    <t>Sheet 3-5</t>
-  </si>
-  <si>
-    <t>Sheet 3-6</t>
-  </si>
-  <si>
-    <t>Sheet 3-7</t>
-  </si>
-  <si>
-    <t>Sheet 3-8</t>
-  </si>
-  <si>
-    <t>Sheet 3-9</t>
-  </si>
-  <si>
-    <t>Sheet 3-10</t>
-  </si>
-  <si>
-    <t>Sheet 3-11</t>
-  </si>
-  <si>
-    <t>Sheet 3-12</t>
-  </si>
-  <si>
-    <t>Sheet 3-13</t>
-  </si>
-  <si>
-    <t>Sheet 3-14</t>
-  </si>
-  <si>
-    <t>Sheet 3-15</t>
-  </si>
-  <si>
-    <t>Sheet 3-16</t>
-  </si>
-  <si>
-    <t>Sheet 3-17</t>
-  </si>
-  <si>
-    <t>Sheet 3-18</t>
-  </si>
-  <si>
-    <t>Sheet 3-19</t>
-  </si>
-  <si>
-    <t>Sheet 3-20</t>
-  </si>
-  <si>
-    <t>Sheet 3-21</t>
-  </si>
-  <si>
-    <t>Sheet 3-22</t>
-  </si>
-  <si>
-    <t>Sheet 3-23</t>
-  </si>
-  <si>
-    <t>Sheet 3-24</t>
-  </si>
-  <si>
-    <t>Sheet 3-25</t>
-  </si>
-  <si>
-    <t>Sheet 3-26</t>
-  </si>
-  <si>
-    <t>Sheet 3-27</t>
-  </si>
-  <si>
-    <t>Sheet 3-28</t>
-  </si>
-  <si>
-    <t>Sheet 3-29</t>
-  </si>
-  <si>
-    <t>Sheet 3-30</t>
-  </si>
-  <si>
     <t>Sheet 1-1</t>
   </si>
   <si>
@@ -261,25 +251,7 @@
     <t>Sheet 1-11</t>
   </si>
   <si>
-    <t>Sheet 1-12</t>
-  </si>
-  <si>
-    <t>Sheet 1-13</t>
-  </si>
-  <si>
     <t>Sheet 1-14</t>
-  </si>
-  <si>
-    <t>Sheet 1-15</t>
-  </si>
-  <si>
-    <t>Sheet 1-16</t>
-  </si>
-  <si>
-    <t>Sheet 1-17</t>
-  </si>
-  <si>
-    <t>Sheet 1-18</t>
   </si>
   <si>
     <t>Sheet 1-19</t>
@@ -322,19 +294,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -347,7 +324,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -357,20 +341,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -383,7 +373,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,15 +407,15 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,7 +450,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,555 +494,575 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B6" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="2">
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="E3:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>